--- a/F1_players_namuwikis.xlsx
+++ b/F1_players_namuwikis.xlsx
@@ -22,142 +22,142 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
-    <t xml:space="preserve">베르스타펜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EB%A7%89%EC%8A%A4%20%EB%B2%A0%EB%A5%B4%EC%8A%A4%ED%83%80%ED%8E%9C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">페레즈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EC%84%B8%EB%A5%B4%ED%9E%88%EC%98%A4%20%ED%8E%98%EB%A0%88%EC%8A%A4</t>
+    <t xml:space="preserve">막스 베르스타펜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGuQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">세르히오 페레즈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGuS</t>
   </si>
   <si>
     <t xml:space="preserve">조지 러셀</t>
   </si>
   <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EC%A1%B0%EC%A7%80%20%EB%9F%AC%EC%85%80</t>
+    <t xml:space="preserve">https://w.wiki/CGuV</t>
   </si>
   <si>
     <t xml:space="preserve">루이스 해밀턴</t>
   </si>
   <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EB%A3%A8%EC%9D%B4%EC%8A%A4%20%ED%95%B4%EB%B0%80%ED%84%B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">피아스트리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EC%98%A4%EC%8A%A4%EC%B9%B4%20%ED%94%BC%EC%95%84%EC%8A%A4%ED%8A%B8%EB%A6%AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">노리스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EB%9E%9C%EB%8F%84%20%EB%85%B8%EB%A6%AC%EC%8A%A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">르클레르</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EC%83%A4%EB%A5%BC%20%EB%A5%B4%ED%81%B4%EB%A0%88%EB%A5%B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">사인츠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EC%B9%B4%EB%A5%BC%EB%A1%9C%EC%8A%A4%20%EC%82%AC%EC%9D%B8%EC%B8%A0%20%EC%A3%BC%EB%8B%88%EC%96%B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">베어먼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EC%98%AC%EB%A6%AC%EB%B2%84%20%EB%B2%A0%EC%96%B4%EB%A8%BC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스트롤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EB%9E%9C%EC%8A%A4%20%EC%8A%A4%ED%8A%B8%EB%A1%A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">알론소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%ED%8E%98%EB%A5%B4%EB%82%9C%EB%8F%84%20%EC%95%8C%EB%A1%A0%EC%86%8C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오콘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EC%97%90%EC%8A%A4%ED%85%8C%EB%B0%98%20%EC%98%A4%EC%BD%98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가슬리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%ED%94%BC%EC%97%90%EB%A5%B4%20%EA%B0%80%EC%8A%AC%EB%A6%AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">알본</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EC%95%8C%EB%A0%89%EC%82%B0%EB%8D%94%20%EC%95%8C%EB%B3%B8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">사전트</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EB%A1%9C%EA%B1%B4%20%EC%82%AC%EC%A0%84%ED%8A%B8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">콜라핀토</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%ED%94%84%EB%9E%91%EC%BD%94%20%EC%BD%9C%EB%9D%BC%ED%95%80%ED%86%A0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">리카도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EB%8B%A4%EB%8B%88%EC%97%98%20%EB%A6%AC%EC%B9%B4%EB%8F%84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">츠노다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EC%B8%A0%EB%85%B8%EB%8B%A4%20%EC%9C%A0%ED%82%A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">로슨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EB%A6%AC%EC%95%94%20%EB%A1%9C%EC%8A%A8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">보타스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EB%B0%9C%ED%85%8C%EB%A6%AC%20%EB%B3%B4%ED%83%80%EC%8A%A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">저우관유</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EC%A0%80%EC%9A%B0%EA%B4%80%EC%9C%84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마그누센</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EC%BC%80%EB%B9%88%20%EB%A7%88%EA%B7%B8%EB%88%84%EC%84%BC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">휠켄베르크</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://namu.wiki/w/%EB%8B%88%EC%BD%94%20%ED%9C%A0%EC%BC%84%EB%B2%A0%EB%A5%B4%ED%81%AC</t>
+    <t xml:space="preserve">https://w.wiki/CGua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">오스카 피아스트리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGuW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">랜도 노리스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGuc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">샤르 르클레르</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">카를로스 사인츠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGuf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">올리버 베어먼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">랜스 스트롤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGuh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">페르난도 알론소</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">에스테반 오콘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">피에르 가슬리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">알렉스 알본</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로건 사전트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">프랑코 콜라핀토</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGuw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다니엘 리카도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGuz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">츠노다 유키</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGu$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">리암 로슨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGv2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">발테리 보타스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGv3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">저우관위</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGv4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">케빈 마그누센</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGv5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">니코 휠켄베르크</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w.wiki/CGv6</t>
   </si>
 </sst>
 </file>
@@ -167,11 +167,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -192,6 +193,14 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,12 +245,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -262,16 +279,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="144.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -281,6 +298,7 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -289,6 +307,7 @@
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -297,12 +316,13 @@
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -313,6 +333,7 @@
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -459,6 +480,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://w.wiki/CGua"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
